--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 3,48</t>
+          <t>2,89; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 3,83</t>
+          <t>3,25; 3,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,58</t>
+          <t>3,14; 3,6</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,82</t>
+          <t>2,99; 3,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 3,78</t>
+          <t>3,07; 3,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,68</t>
+          <t>3,16; 3,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,26</t>
+          <t>2,14; 3,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,71</t>
+          <t>2,21; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,2</t>
+          <t>2,34; 3,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,22</t>
+          <t>2,36; 3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,48</t>
+          <t>2,59; 3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,21</t>
+          <t>2,58; 3,22</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,69</t>
+          <t>2,26; 3,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,75</t>
+          <t>1,64; 2,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,89</t>
+          <t>2,06; 2,9</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,93</t>
+          <t>1,52; 2,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,07</t>
+          <t>1,85; 3,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,78</t>
+          <t>1,86; 2,8</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,15</t>
+          <t>2,78; 3,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,27</t>
+          <t>2,91; 3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,16</t>
+          <t>2,9; 3,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante el día en el interior de la vivienda</t>
+          <t>Molestia del ruido del tráfico durante el día en el interior de la vivienda (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,51</t>
+          <t>2,92; 3,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 3,88</t>
+          <t>3,21; 3,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 3,6</t>
+          <t>3,16; 3,59</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,82</t>
+          <t>3,03; 3,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,78</t>
+          <t>3,1; 3,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,65</t>
+          <t>3,13; 3,68</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,18</t>
+          <t>2,11; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,66</t>
+          <t>2,24; 3,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,19</t>
+          <t>2,31; 3,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,2</t>
+          <t>2,31; 3,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,46</t>
+          <t>2,58; 3,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,22</t>
+          <t>2,56; 3,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,72</t>
+          <t>2,29; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,7</t>
+          <t>1,71; 2,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,9</t>
+          <t>2,05; 2,91</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,97</t>
+          <t>1,47; 2,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,08</t>
+          <t>1,82; 3,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,8</t>
+          <t>1,86; 2,85</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,16</t>
+          <t>2,79; 3,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,26</t>
+          <t>2,91; 3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,17</t>
+          <t>2,91; 3,17</t>
         </is>
       </c>
     </row>
